--- a/Projet_final.xlsx
+++ b/Projet_final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Outils_Gestion\Excel\TP_FINAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Outils_Gestion\Excel\TP_FINAL\TP_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>TP FINAL</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Planète 1</t>
+  </si>
+  <si>
+    <t>Planète deux</t>
+  </si>
+  <si>
+    <t>Planète trois</t>
+  </si>
+  <si>
+    <t>rayon</t>
+  </si>
+  <si>
+    <t>position x</t>
+  </si>
+  <si>
+    <t>position y</t>
+  </si>
+  <si>
+    <t>Rayon</t>
+  </si>
+  <si>
+    <t>Position X</t>
+  </si>
+  <si>
+    <t>Position Y</t>
   </si>
 </sst>
 </file>
@@ -82,6 +121,1432 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA"/>
+              <a:t>Simulateur</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" baseline="0"/>
+              <a:t> de gravité</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37909532716793343"/>
+          <c:y val="2.9556650246305417E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planète 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$6:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26282.53563910837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25941.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25410.684605501934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24741.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23258.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22589.315394498066</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22058.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21717.46436089163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21717.46436089163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22058.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22589.315394498066</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23258.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24741.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25410.684605501934</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25941.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26282.53563910837</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$6:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24741.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25410.684605501934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25941.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26282.53563910837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26282.53563910837</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25941.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25410.684605501934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24741.640786499873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23258.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22589.315394498066</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22058.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21717.46436089163</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21717.46436089163</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22058.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22589.315394498066</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23258.359213500127</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D20-460D-B7ED-52DC733FEE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planète deux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$G$6:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33167.960777017608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30753.288904374109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26992.349288972044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22253.288904374109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11746.711095625895</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7007.6507110279581</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3246.7110956258948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>832.03922298239013</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>832.03922298238649</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3246.7110956258912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7007.6507110279545</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11746.711095625891</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16999.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22253.288904374102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26992.34928897204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30753.288904374105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33167.960777017608</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$6:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-17000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-11746.711095625895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7007.6507110279563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3246.711095625893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-832.03922298239013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-832.03922298238831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3246.711095625893</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-7007.6507110279545</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-11746.711095625891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16999.999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-22253.288904374098</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-26992.349288972044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30753.288904374105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-33167.960777017608</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-34000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-33167.960777017608</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-30753.288904374109</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-26992.349288972047</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-22253.288904374109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-17000.000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D20-460D-B7ED-52DC733FEE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planète trois</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$J$6:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-13334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-13660.257262376506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14607.092715496601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16081.823508218375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-17940.092715496601</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-22059.907284503399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23918.176491781625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-25392.907284503399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-26339.742737623492</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-26666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-26339.742737623495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-25392.907284503402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-23918.176491781625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-22059.907284503402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-17940.092715496601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16081.823508218375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14607.092715496601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-13660.257262376506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-13334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$6:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>7777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9836.9072845033988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11695.176491781625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13169.907284503399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14116.742737623494</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14116.742737623495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13169.907284503399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11695.176491781627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9836.9072845034007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7777.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5717.0927154966039</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3858.8235082183746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2384.0927154966012</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1437.2572623765063</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1111</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1437.2572623765054</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2384.0927154965993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3858.8235082183728</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5717.0927154965993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7776.9999999999982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D20-460D-B7ED-52DC733FEE51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1811891231"/>
+        <c:axId val="1811894975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1811891231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="-50000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811894975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1811894975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50000"/>
+          <c:min val="-50000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1811891231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481011</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,30 +1812,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>A6*2*PI()/20</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>$E$29*COS(B6)+$E$30</f>
+        <v>26400</v>
+      </c>
+      <c r="E6">
+        <f>$E$29*SIN(B6)+$E$31</f>
+        <v>24000</v>
+      </c>
+      <c r="G6">
+        <f>$H$29*COS(B6)+$H$30</f>
+        <v>34000</v>
+      </c>
+      <c r="H6">
+        <f>$H$29*SIN(B6)+$H$31</f>
+        <v>-17000</v>
+      </c>
+      <c r="J6">
+        <f>$K$29*COS(B6)+$K$30</f>
+        <v>-13334</v>
+      </c>
+      <c r="K6">
+        <f>$K$29*SIN(B6)+$K$31</f>
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>A7*2*PI()/20</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:D26" si="0">$E$29*COS(B7)+$E$30</f>
+        <v>26282.53563910837</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E26" si="1">$E$29*SIN(B7)+$E$31</f>
+        <v>24741.640786499873</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G26" si="2">$H$29*COS(B7)+$H$30</f>
+        <v>33167.960777017608</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H26" si="3">$H$29*SIN(B7)+$H$31</f>
+        <v>-11746.711095625895</v>
+      </c>
+      <c r="J7">
+        <f>$K$29*COS(B7)+$K$30</f>
+        <v>-13660.257262376506</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K26" si="4">$K$29*SIN(B7)+$K$31</f>
+        <v>9836.9072845033988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B36" si="5">A8*2*PI()/20</f>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>25941.640786499873</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>25410.684605501934</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>30753.288904374109</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-7007.6507110279563</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J7:J26" si="6">$K$29*COS(B8)+$K$30</f>
+        <v>-14607.092715496601</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>11695.176491781625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="5"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>25410.684605501934</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>25941.640786499873</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>26992.349288972044</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-3246.711095625893</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>-16081.823508218375</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>13169.907284503399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="5"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>24741.640786499873</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>26282.53563910837</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>22253.288904374109</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-832.03922298239013</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>-17940.092715496601</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>14116.742737623494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="5"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>26400</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>17000</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>14443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="5"/>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>23258.359213500127</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>26282.53563910837</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>11746.711095625895</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-832.03922298238831</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>-22059.907284503399</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>14116.742737623495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="5"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>22589.315394498066</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>25941.640786499873</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>7007.6507110279581</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-3246.711095625893</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>-23918.176491781625</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>13169.907284503399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="5"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>22058.359213500127</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>25410.684605501934</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>3246.7110956258948</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-7007.6507110279545</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>-25392.907284503399</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>11695.176491781627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="5"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>21717.46436089163</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>24741.640786499873</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>832.03922298239013</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-11746.711095625891</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>-26339.742737623492</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>9836.9072845034007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="5"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>21600</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-16999.999999999996</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>-26666</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>7777.0000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="5"/>
+        <v>3.455751918948772</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>21717.46436089163</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>23258.359213500127</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>832.03922298238649</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-22253.288904374098</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>-26339.742737623495</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>5717.0927154966039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="5"/>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>22058.359213500127</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>22589.315394498066</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>3246.7110956258912</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-26992.349288972044</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>-25392.907284503402</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>3858.8235082183746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="5"/>
+        <v>4.0840704496667311</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>22589.315394498066</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>22058.359213500127</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>7007.6507110279545</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-30753.288904374105</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>-23918.176491781625</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>2384.0927154966012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="5"/>
+        <v>4.3982297150257104</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>23258.359213500127</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>21717.46436089163</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>11746.711095625891</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-33167.960777017608</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>-22059.907284503402</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>1437.2572623765063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="5"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>21600</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>16999.999999999996</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>-34000</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>-20000</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="5"/>
+        <v>5.026548245743669</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>24741.640786499873</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>21717.46436089163</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>22253.288904374102</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>-33167.960777017608</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>-17940.092715496601</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>1437.2572623765054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="5"/>
+        <v>5.3407075111026483</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>25410.684605501934</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>22058.359213500127</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>26992.34928897204</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>-30753.288904374109</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>-16081.823508218375</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>2384.0927154965993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>5.6548667764616276</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>25941.640786499873</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>22589.315394498066</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>30753.288904374105</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-26992.349288972047</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>-14607.092715496601</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>3858.8235082183728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="5"/>
+        <v>5.9690260418206069</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>26282.53563910837</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>23258.359213500127</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>33167.960777017608</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>-22253.288904374109</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>-13660.257262376506</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>5717.0927154965993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="5"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>26400</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>34000</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-17000.000000000004</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>-13334</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>7776.9999999999982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>2400</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>17000</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>24000</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>17000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30">
+        <v>-20000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>24000</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>-17000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>7777</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>